--- a/meta/program/BlancoVueComponentApiStructure.xlsx
+++ b/meta/program/BlancoVueComponentApiStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A261302-9A9A-C046-A906-8F5801DEE8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59E8DA9-CD7F-E546-9A24-FA92C3FA4C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11800" yWindow="3540" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,14 +266,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>APIの実装クラス名を指定します。必須項目です。</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ジッソウ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>className</t>
+    <t>method</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>APIのHTTPメソッドを指定します。必須項目です。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1227,7 +1224,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1548,14 +1545,14 @@
         <v>3</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29"/>
